--- a/Financial Services/Berkshire Hathaway.xlsx
+++ b/Financial Services/Berkshire Hathaway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B409AE-106F-344E-997C-77C841B22AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826C2E7-2AE2-9142-BF1C-0CEEBB3C686C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28080" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1013,6 +1013,9 @@
     <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,9 +1034,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2501,39 +2501,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>354.33</v>
+    <v>333.94</v>
     <v>259.85000000000002</v>
-    <v>0.87180000000000002</v>
-    <v>2.12</v>
-    <v>6.8300000000000001E-3</v>
-    <v>0.28000000000000003</v>
-    <v>8.9599999999999999E-4</v>
+    <v>0.87790000000000001</v>
+    <v>-1.26</v>
+    <v>-3.8140000000000001E-3</v>
+    <v>0.52</v>
+    <v>1.58E-3</v>
     <v>USD</v>
-    <v>Berkshire Hathaway Inc. (Berkshire) is a holding company owning subsidiaries engaged in various business activities. Berkshire’s various business activities include insurance businesses conducted on both a primary basis and a reinsurance basis. Its segments include Insurance, which consists of GEICO, Berkshire Hathaway Primary Group and Berkshire Hathaway Reinsurance Group; Railroad, which includes operations of railroad systems in North America through Burlington Northern Santa Fe LLC; Utilities and energy, which includes regulated electric and gas utility; Manufacturing, which include manufacture of various products, including industrial, consumer and building products; McLane Company, which include wholesale distribution of groceries and non-food items, and Service and retailing, which provide shared aircraft ownership programs, aviation pilot training, electronic components distribution and various retailing businesses, including automobile dealerships and furniture leasing.</v>
+    <v>Berkshire Hathaway Inc. (Berkshire) is a holding company owning subsidiaries engaged in various business activities. Berkshire’s various business activities include insurance businesses conducted on both a primary basis and a reinsurance basis. Its segments include Insurance, which consists of GEICO, Berkshire Hathaway Primary Group and Berkshire Hathaway Reinsurance Group; Railroad (BNSF), which includes operations of railroad systems in North America through Burlington Northern Santa Fe LLC; Berkshire Hathaway Energy, which includes regulated electric and gas utility; Manufacturing, which include manufacture of various products, including industrial, consumer and building products; McLane Company, which include wholesale distribution of groceries and non-food items; Service and retailing, which provide shared aircraft ownership programs, aviation pilot training, electronic components distribution and various retailing businesses, and Pilot Travel Centers (Pilot).</v>
     <v>383000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3555 Farnam St, OMAHA, NE, 68131 US</v>
-    <v>313.22000000000003</v>
+    <v>331.49</v>
     <v>Consumer Goods Conglomerates</v>
     <v>Stock</v>
-    <v>45022.999904409378</v>
+    <v>45068.999944675779</v>
     <v>0</v>
-    <v>309.05</v>
-    <v>687834100000</v>
+    <v>328.35</v>
+    <v>725295100000</v>
     <v>BERKSHIRE HATHAWAY INC.,</v>
     <v>BERKSHIRE HATHAWAY INC.,</v>
-    <v>309.82</v>
-    <v>58.405200000000001</v>
-    <v>310.39</v>
-    <v>312.51</v>
-    <v>312.79000000000002</v>
-    <v>1455700</v>
+    <v>330.75</v>
+    <v>95.488399999999999</v>
+    <v>330.39</v>
+    <v>329.13</v>
+    <v>329.65</v>
+    <v>1449830</v>
     <v>BRK.B</v>
     <v>BERKSHIRE HATHAWAY INC., (XNYS:BRK.B)</v>
-    <v>3132148</v>
-    <v>4631974</v>
+    <v>2763422</v>
+    <v>2818089</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -3121,10 +3121,10 @@
   <dimension ref="A1:AS118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL91" sqref="AL91"/>
+      <selection pane="bottomRight" activeCell="AM105" sqref="AM105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5187,15 +5187,15 @@
       </c>
       <c r="AQ16" s="27">
         <f>AR101/AJ3</f>
-        <v>2.2769253431935623</v>
+        <v>2.4009318445888463</v>
       </c>
       <c r="AR16" s="27">
         <f>AR101/AJ28</f>
-        <v>-30.143043078136639</v>
+        <v>-31.784701345370085</v>
       </c>
       <c r="AS16" s="28">
         <f>AR101/AJ106</f>
-        <v>31.610022977941178</v>
+        <v>33.331576286764708</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -12705,10 +12705,10 @@
       <c r="AJ83" s="1">
         <v>-4779000000</v>
       </c>
-      <c r="AQ83" s="58" t="s">
+      <c r="AQ83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AR83" s="59"/>
+      <c r="AR83" s="62"/>
     </row>
     <row r="84" spans="1:44" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12819,10 +12819,10 @@
       <c r="AJ84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ84" s="60" t="s">
+      <c r="AQ84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AR84" s="61"/>
+      <c r="AR84" s="64"/>
     </row>
     <row r="85" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13904,10 +13904,10 @@
       <c r="AJ93" s="1">
         <v>6387000000</v>
       </c>
-      <c r="AQ93" s="60" t="s">
+      <c r="AQ93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AR93" s="61"/>
+      <c r="AR93" s="64"/>
     </row>
     <row r="94" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14137,9 +14137,9 @@
       <c r="AQ95" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="AR95" s="62" cm="1">
+      <c r="AR95" s="56" cm="1">
         <f t="array" ref="AR95">_FV(A1,"Beta")</f>
-        <v>0.87180000000000002</v>
+        <v>0.87790000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="AR97" s="52">
         <f>(AR94)+((AR95)*(AR96-AR94))</f>
-        <v>7.848099E-2</v>
+        <v>7.8743595E-2</v>
       </c>
     </row>
     <row r="98" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14484,10 +14484,10 @@
       <c r="AJ98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ98" s="60" t="s">
+      <c r="AQ98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AR98" s="61"/>
+      <c r="AR98" s="64"/>
     </row>
     <row r="99" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="AR100" s="50">
         <f>AR99/AR103</f>
-        <v>0.15276874332321133</v>
+        <v>0.14603058133068714</v>
       </c>
     </row>
     <row r="101" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="AR101" s="41" cm="1">
         <f t="array" ref="AR101">_FV(A1,"Market cap",TRUE)</f>
-        <v>687834100000</v>
+        <v>725295100000</v>
       </c>
     </row>
     <row r="102" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="AR102" s="50">
         <f>AR101/AR103</f>
-        <v>0.84723125667678867</v>
+        <v>0.85396941866931286</v>
       </c>
     </row>
     <row r="103" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="AR103" s="54">
         <f>AR99+AR101</f>
-        <v>811861100000</v>
+        <v>849322100000</v>
       </c>
     </row>
     <row r="104" spans="1:44" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15183,10 +15183,10 @@
       <c r="AJ104" s="11">
         <v>36399000000</v>
       </c>
-      <c r="AQ104" s="60" t="s">
+      <c r="AQ104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AR104" s="61"/>
+      <c r="AR104" s="64"/>
     </row>
     <row r="105" spans="1:44" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15340,7 +15340,7 @@
       </c>
       <c r="AR105" s="24">
         <f>(AR100*AR92)+(AR102*AR97)</f>
-        <v>6.8337539153541488E-2</v>
+        <v>6.9009192383681944E-2</v>
       </c>
     </row>
     <row r="106" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15525,7 +15525,7 @@
       <c r="AN107" s="31"/>
       <c r="AO107" s="34">
         <f>AO106*(1+AR107)/(AR108-AR107)</f>
-        <v>812732805205.79675</v>
+        <v>800329155325.1416</v>
       </c>
       <c r="AP107" s="35" t="s">
         <v>148</v>
@@ -15556,7 +15556,7 @@
       </c>
       <c r="AO108" s="34">
         <f>AO107+AO106</f>
-        <v>847095575710.1615</v>
+        <v>834691925829.50635</v>
       </c>
       <c r="AP108" s="35" t="s">
         <v>144</v>
@@ -15566,14 +15566,14 @@
       </c>
       <c r="AR108" s="39">
         <f>AR105</f>
-        <v>6.8337539153541488E-2</v>
+        <v>6.9009192383681944E-2</v>
       </c>
     </row>
     <row r="109" spans="1:44" ht="19" x14ac:dyDescent="0.25">
-      <c r="AK109" s="56" t="s">
+      <c r="AK109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="AL109" s="57"/>
+      <c r="AL109" s="60"/>
     </row>
     <row r="110" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="AK110" s="40" t="s">
@@ -15581,7 +15581,7 @@
       </c>
       <c r="AL110" s="41">
         <f>NPV(AR108,AK108,AL108,AM108,AN108,AO108)</f>
-        <v>701435965875.53735</v>
+        <v>690494078954.78723</v>
       </c>
     </row>
     <row r="111" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="AL113" s="41">
         <f>AL110+AL111-AL112</f>
-        <v>702442965875.53735</v>
+        <v>691501078954.78723</v>
       </c>
     </row>
     <row r="114" spans="37:40" ht="20" x14ac:dyDescent="0.25">
@@ -15624,18 +15624,18 @@
       <c r="AK115" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="AL115" s="64">
+      <c r="AL115" s="58">
         <f>AL113/AL114</f>
-        <v>338.34949429784706</v>
+        <v>333.07905657385965</v>
       </c>
     </row>
     <row r="116" spans="37:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AK116" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="AL116" s="63" cm="1">
+      <c r="AL116" s="57" cm="1">
         <f t="array" ref="AL116">_FV(A1,"Price")</f>
-        <v>312.51</v>
+        <v>329.13</v>
       </c>
     </row>
     <row r="117" spans="37:40" ht="20" x14ac:dyDescent="0.25">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="AL117" s="45">
         <f>AL115/AL116-1</f>
-        <v>8.2683735873562592E-2</v>
+        <v>1.1998470433748576E-2</v>
       </c>
       <c r="AN117" s="55"/>
     </row>
